--- a/data_mining/car_brands_and_models_links_Mercedes.xlsx
+++ b/data_mining/car_brands_and_models_links_Mercedes.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potynd&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pp7x&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potyql&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppbj&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potytb&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppkz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potyvs&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppnu&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potyy7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppr4&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potz10&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppuo&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potz4g&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ppy6&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potz85&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pq1w&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzbg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pq53&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzew&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pq84&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzhq&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqao&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzk5&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqda&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzn8&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqfx&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzqc&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqii&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzt1&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqlc&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=potzvy&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqpe&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou01e&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqsz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou04j&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqws&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou081&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pqzi&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0bf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pr28&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0dx&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pr50&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0gf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pr75&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0jm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pra8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0mo&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prd2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0p7&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prgh&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0sg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prk2&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou0wf&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prnn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou106&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prqz&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou13d&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prtw&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou173&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5prwp&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1af&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5przs&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1dh&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ps2u&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1gj&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ps5f&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1j2&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5ps8d&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1lr&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psbn&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1p9&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psey&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1sk&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psiv&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1vm&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psme&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou1yg&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pspf&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou21x&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pssm&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou24k&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psv8&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou27j&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5psxt&amp;f1=1</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=pou2am&amp;f1=1</t>
+          <t>https://www.mobile.bg/pcgi/mobile.cgi?act=3&amp;slink=q5pt06&amp;f1=1</t>
         </is>
       </c>
     </row>
